--- a/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Tnc-Cntn1.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Tnc-Cntn1.xlsx
@@ -528,22 +528,22 @@
         <v>21</v>
       </c>
       <c r="E2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G2">
-        <v>1.442371333333333</v>
+        <v>0.1346003333333333</v>
       </c>
       <c r="H2">
-        <v>4.327114</v>
+        <v>0.403801</v>
       </c>
       <c r="I2">
-        <v>0.03522044016446201</v>
+        <v>0.009651054304565105</v>
       </c>
       <c r="J2">
-        <v>0.03522044016446201</v>
+        <v>0.009651054304565105</v>
       </c>
       <c r="K2">
         <v>1</v>
@@ -564,16 +564,16 @@
         <v>1</v>
       </c>
       <c r="Q2">
-        <v>0.04947814463777777</v>
+        <v>0.004617240101111112</v>
       </c>
       <c r="R2">
-        <v>0.4453033017399999</v>
+        <v>0.04155516091</v>
       </c>
       <c r="S2">
-        <v>0.03522044016446201</v>
+        <v>0.009651054304565105</v>
       </c>
       <c r="T2">
-        <v>0.03522044016446201</v>
+        <v>0.009651054304565105</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -602,10 +602,10 @@
         <v>33.994191</v>
       </c>
       <c r="I3">
-        <v>0.2766948987373093</v>
+        <v>0.8124788779145131</v>
       </c>
       <c r="J3">
-        <v>0.2766948987373092</v>
+        <v>0.8124788779145132</v>
       </c>
       <c r="K3">
         <v>1</v>
@@ -632,10 +632,10 @@
         <v>3.49834219581</v>
       </c>
       <c r="S3">
-        <v>0.2766948987373093</v>
+        <v>0.8124788779145131</v>
       </c>
       <c r="T3">
-        <v>0.2766948987373092</v>
+        <v>0.8124788779145132</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,16 +658,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>28.17890933333333</v>
+        <v>2.4807</v>
       </c>
       <c r="H4">
-        <v>84.536728</v>
+        <v>7.4421</v>
       </c>
       <c r="I4">
-        <v>0.6880846610982287</v>
+        <v>0.1778700677809217</v>
       </c>
       <c r="J4">
-        <v>0.6880846610982286</v>
+        <v>0.1778700677809217</v>
       </c>
       <c r="K4">
         <v>1</v>
@@ -688,16 +688,16 @@
         <v>1</v>
       </c>
       <c r="Q4">
-        <v>0.966630519831111</v>
+        <v>0.085096279</v>
       </c>
       <c r="R4">
-        <v>8.699674678479999</v>
+        <v>0.765866511</v>
       </c>
       <c r="S4">
-        <v>0.6880846610982287</v>
+        <v>0.1778700677809217</v>
       </c>
       <c r="T4">
-        <v>0.6880846610982286</v>
+        <v>0.1778700677809217</v>
       </c>
     </row>
   </sheetData>
